--- a/data_experiments/Cra_rvoll_nch.xlsx
+++ b/data_experiments/Cra_rvoll_nch.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floodlight\ft_Regulation_Katrin\data_experiments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45640155-09F3-421E-A14E-B94BEACBABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -331,8 +348,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,15 +408,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +498,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,6 +550,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,14 +743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -723,22 +786,30 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2.117678598667979</v>
+        <v>2.1176785986679789</v>
       </c>
       <c r="E2">
         <v>1.19476407442286</v>
       </c>
       <c r="F2">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G2">
         <v>3.530933337506251</v>
       </c>
       <c r="H2">
-        <v>4.218632300834477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>4.2186323008344768</v>
+      </c>
+      <c r="K2">
+        <f>E2/D2</f>
+        <v>0.56418574337690686</v>
+      </c>
+      <c r="L2">
+        <f>H2/F2</f>
+        <v>0.56418574337690697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -749,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>2.643</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="E3">
-        <v>2.643</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -763,8 +834,16 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="K3">
+        <f>E3/D3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" t="e">
+        <f>H3/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,22 +854,30 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>2.822</v>
+        <v>2.8220000000000001</v>
       </c>
       <c r="E4">
-        <v>2.822</v>
+        <v>2.8220000000000001</v>
       </c>
       <c r="F4">
         <v>4.860861146496827</v>
       </c>
       <c r="G4">
-        <v>1.722488003719641</v>
+        <v>1.7224880037196411</v>
       </c>
       <c r="H4">
         <v>4.860861146496827</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="K4">
+        <f>E4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>H4/F4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,16 +894,24 @@
         <v>1.101322759900544</v>
       </c>
       <c r="F5">
-        <v>-16.02352614316763</v>
+        <v>-16.023526143167629</v>
       </c>
       <c r="G5">
         <v>-7.826298492750861</v>
       </c>
       <c r="H5">
-        <v>-8.619280655841845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-8.6192806558418447</v>
+      </c>
+      <c r="K5">
+        <f>E5/D5</f>
+        <v>0.53791410073100998</v>
+      </c>
+      <c r="L5">
+        <f>H5/F5</f>
+        <v>0.53791410073100998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -833,16 +928,24 @@
         <v>2.843</v>
       </c>
       <c r="F6">
-        <v>4.959984944574645</v>
+        <v>4.9599849445746447</v>
       </c>
       <c r="G6">
         <v>1.74463065233016</v>
       </c>
       <c r="H6">
-        <v>4.959984944574645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>4.9599849445746447</v>
+      </c>
+      <c r="K6">
+        <f>E6/D6</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>H6/F6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -853,10 +956,10 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>3.189</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="E7">
-        <v>3.189</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -867,8 +970,16 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7">
+        <f>E7/D7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" t="e">
+        <f>H7/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -879,10 +990,10 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E8">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -893,8 +1004,16 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8">
+        <f>E8/D8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" t="e">
+        <f>H8/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -911,16 +1030,24 @@
         <v>2.871</v>
       </c>
       <c r="F9">
-        <v>-14.71613956874286</v>
+        <v>-14.716139568742861</v>
       </c>
       <c r="G9">
-        <v>-5.125788773508486</v>
+        <v>-5.1257887735084857</v>
       </c>
       <c r="H9">
-        <v>-14.71613956874286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-14.716139568742861</v>
+      </c>
+      <c r="K9">
+        <f>E9/D9</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>H9/F9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -931,22 +1058,30 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>4.212</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="E10">
-        <v>4.212</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="F10">
-        <v>3.214895047684765</v>
+        <v>3.2148950476847649</v>
       </c>
       <c r="G10">
-        <v>0.7632704291749206</v>
+        <v>0.76327042917492061</v>
       </c>
       <c r="H10">
-        <v>3.214895047684765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3.2148950476847649</v>
+      </c>
+      <c r="K10">
+        <f>E10/D10</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>H10/F10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -957,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>2.049455568164751</v>
+        <v>2.0494555681647508</v>
       </c>
       <c r="E11">
         <v>1.104012463168065</v>
@@ -971,8 +1106,16 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11">
+        <f>E11/D11</f>
+        <v>0.53868572723276331</v>
+      </c>
+      <c r="L11" t="e">
+        <f>H11/F11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -997,8 +1140,16 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <f>E12/D12</f>
+        <v>1</v>
+      </c>
+      <c r="L12" t="e">
+        <f>H12/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1009,10 +1160,10 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>1.469</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="E13">
-        <v>1.469</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1023,8 +1174,16 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13">
+        <f>E13/D13</f>
+        <v>1</v>
+      </c>
+      <c r="L13" t="e">
+        <f>H13/F13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1035,7 +1194,7 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>1.993976653404426</v>
+        <v>1.9939766534044261</v>
       </c>
       <c r="E14">
         <v>1.032649644845677</v>
@@ -1047,10 +1206,18 @@
         <v>1.25593720773661</v>
       </c>
       <c r="H14">
-        <v>1.296943111517682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>1.2969431115176819</v>
+      </c>
+      <c r="K14">
+        <f>E14/D14</f>
+        <v>0.51788452140729802</v>
+      </c>
+      <c r="L14">
+        <f>H14/F14</f>
+        <v>0.51788452140729824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1061,22 +1228,30 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>1.021028510102458</v>
+        <v>1.0210285101024581</v>
       </c>
       <c r="E15">
-        <v>0.1767171025127234</v>
+        <v>0.17671710251272341</v>
       </c>
       <c r="F15">
-        <v>6.007249575350351</v>
+        <v>6.0072495753503512</v>
       </c>
       <c r="G15">
-        <v>5.883527752567398</v>
+        <v>5.8835277525673977</v>
       </c>
       <c r="H15">
-        <v>1.039719976986906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>1.0397199769869061</v>
+      </c>
+      <c r="K15">
+        <f>E15/D15</f>
+        <v>0.17307753972020842</v>
+      </c>
+      <c r="L15">
+        <f>H15/F15</f>
+        <v>0.17307753972020851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1087,22 +1262,30 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>2.140516746193431</v>
+        <v>2.1405167461934309</v>
       </c>
       <c r="E16">
-        <v>1.225866214005853</v>
+        <v>1.2258662140058529</v>
       </c>
       <c r="F16">
-        <v>6.007249575350358</v>
+        <v>6.0072495753503583</v>
       </c>
       <c r="G16">
-        <v>2.806448296203847</v>
+        <v>2.8064482962038468</v>
       </c>
       <c r="H16">
-        <v>3.440330147670588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>3.4403301476705881</v>
+      </c>
+      <c r="K16">
+        <f>E16/D16</f>
+        <v>0.57269639033932407</v>
+      </c>
+      <c r="L16">
+        <f>H16/F16</f>
+        <v>0.57269639033932418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1113,22 +1296,30 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>1.993</v>
+        <v>1.9930000000000001</v>
       </c>
       <c r="E17">
-        <v>1.993</v>
+        <v>1.9930000000000001</v>
       </c>
       <c r="F17">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="G17">
-        <v>4.209734069242348</v>
+        <v>4.2097340692423479</v>
       </c>
       <c r="H17">
-        <v>8.390000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>8.39</v>
+      </c>
+      <c r="K17">
+        <f>E17/D17</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>H17/F17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1142,7 +1333,7 @@
         <v>1.651</v>
       </c>
       <c r="E18">
-        <v>2.658986991580629</v>
+        <v>2.6589869915806288</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1153,8 +1344,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18">
+        <f>E18/D18</f>
+        <v>1.610531188116674</v>
+      </c>
+      <c r="L18" t="e">
+        <f>H18/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1165,10 +1364,10 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>2.611</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="E19">
-        <v>2.611</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1179,8 +1378,16 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19">
+        <f>E19/D19</f>
+        <v>1</v>
+      </c>
+      <c r="L19" t="e">
+        <f>H19/F19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1194,7 +1401,7 @@
         <v>1.367</v>
       </c>
       <c r="E20">
-        <v>2.342041611180673</v>
+        <v>2.3420416111806732</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1205,8 +1412,16 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20">
+        <f>E20/D20</f>
+        <v>1.7132711127876177</v>
+      </c>
+      <c r="L20" t="e">
+        <f>H20/F20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1217,10 +1432,10 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>2.151</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="E21">
-        <v>2.151</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1231,8 +1446,16 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21">
+        <f>E21/D21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" t="e">
+        <f>H21/F21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1249,16 +1472,24 @@
         <v>1.196</v>
       </c>
       <c r="F22">
-        <v>5.064375661482109</v>
+        <v>5.0643756614821092</v>
       </c>
       <c r="G22">
         <v>4.23442781060377</v>
       </c>
       <c r="H22">
-        <v>5.064375661482109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>5.0643756614821092</v>
+      </c>
+      <c r="K22">
+        <f>E22/D22</f>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f>H22/F22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1275,16 +1506,24 @@
         <v>0.91</v>
       </c>
       <c r="F23">
-        <v>45.51400977451759</v>
+        <v>45.514009774517589</v>
       </c>
       <c r="G23">
-        <v>50.01539535661274</v>
+        <v>50.015395356612743</v>
       </c>
       <c r="H23">
-        <v>45.51400977451759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>45.514009774517589</v>
+      </c>
+      <c r="K23">
+        <f>E23/D23</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>H23/F23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1295,10 +1534,10 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E24">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1309,8 +1548,16 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="K24">
+        <f>E24/D24</f>
+        <v>1</v>
+      </c>
+      <c r="L24" t="e">
+        <f>H24/F24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1321,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>2.337494447287393</v>
+        <v>2.3374944472873929</v>
       </c>
       <c r="E25">
         <v>1.508483659727724</v>
@@ -1330,13 +1577,21 @@
         <v>1.758177444106805</v>
       </c>
       <c r="G25">
-        <v>0.7521632601725012</v>
+        <v>0.75216326017250124</v>
       </c>
       <c r="H25">
-        <v>1.134625987417751</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>1.1346259874177509</v>
+      </c>
+      <c r="K25">
+        <f>E25/D25</f>
+        <v>0.64534213609717184</v>
+      </c>
+      <c r="L25">
+        <f>H25/F25</f>
+        <v>0.6453421360971715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1347,22 +1602,30 @@
         <v>31</v>
       </c>
       <c r="D26">
-        <v>2.519</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="E26">
-        <v>2.519</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="F26">
         <v>0.8739215069684303</v>
       </c>
       <c r="G26">
-        <v>0.3469319201938985</v>
+        <v>0.34693192019389851</v>
       </c>
       <c r="H26">
         <v>0.8739215069684303</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="K26">
+        <f>E26/D26</f>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f>H26/F26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1387,8 +1650,16 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27">
+        <f>E27/D27</f>
+        <v>1</v>
+      </c>
+      <c r="L27" t="e">
+        <f>H27/F27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1405,16 +1676,24 @@
         <v>1.758</v>
       </c>
       <c r="F28">
-        <v>-22.809833310205</v>
+        <v>-22.809833310205001</v>
       </c>
       <c r="G28">
         <v>-12.97487674073095</v>
       </c>
       <c r="H28">
-        <v>-22.809833310205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-22.809833310205001</v>
+      </c>
+      <c r="K28">
+        <f>E28/D28</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>H28/F28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1425,22 +1704,30 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E29">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F29">
         <v>2.678481850507521</v>
       </c>
       <c r="G29">
-        <v>3.121773718540234</v>
+        <v>3.1217737185402341</v>
       </c>
       <c r="H29">
         <v>2.678481850507521</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="K29">
+        <f>E29/D29</f>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>H29/F29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1451,22 +1738,30 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>2.296</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="E30">
-        <v>2.296</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="F30">
-        <v>6.007249575350351</v>
+        <v>6.0072495753503512</v>
       </c>
       <c r="G30">
-        <v>2.616397898671756</v>
+        <v>2.6163978986717562</v>
       </c>
       <c r="H30">
-        <v>6.00724957535035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>6.0072495753503503</v>
+      </c>
+      <c r="K30">
+        <f>E30/D30</f>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f>H30/F30</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1483,16 +1778,24 @@
         <v>1.4</v>
       </c>
       <c r="F31">
-        <v>-2.281503094067124</v>
+        <v>-2.2815030940671241</v>
       </c>
       <c r="G31">
-        <v>-1.629645067190803</v>
+        <v>-1.6296450671908029</v>
       </c>
       <c r="H31">
-        <v>-2.281503094067124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-2.2815030940671241</v>
+      </c>
+      <c r="K31">
+        <f>E31/D31</f>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f>H31/F31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1503,10 +1806,10 @@
         <v>37</v>
       </c>
       <c r="D32">
-        <v>1.632</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="E32">
-        <v>1.632</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1517,8 +1820,16 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32">
+        <f>E32/D32</f>
+        <v>1</v>
+      </c>
+      <c r="L32" t="e">
+        <f>H32/F32</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1529,7 +1840,7 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>0.697</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="E33">
         <v>1.333972858314421</v>
@@ -1538,13 +1849,21 @@
         <v>43.59898531199763</v>
       </c>
       <c r="G33">
-        <v>62.55234621520464</v>
+        <v>62.552346215204643</v>
       </c>
       <c r="H33">
-        <v>83.44313207496978</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>83.443132074969782</v>
+      </c>
+      <c r="K33">
+        <f>E33/D33</f>
+        <v>1.9138778455013215</v>
+      </c>
+      <c r="L33">
+        <f>H33/F33</f>
+        <v>1.9138778455013215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1555,10 +1874,10 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E34">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1569,8 +1888,16 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34">
+        <f>E34/D34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" t="e">
+        <f>H34/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1584,19 +1911,27 @@
         <v>0.9183375192358374</v>
       </c>
       <c r="E35">
-        <v>0.1313860569287837</v>
+        <v>0.13138605692878369</v>
       </c>
       <c r="F35">
-        <v>14.71613956874286</v>
+        <v>14.716139568742861</v>
       </c>
       <c r="G35">
-        <v>16.02476133283587</v>
+        <v>16.024761332835869</v>
       </c>
       <c r="H35">
         <v>2.105430204746146</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35">
+        <f>E35/D35</f>
+        <v>0.1430694643055769</v>
+      </c>
+      <c r="L35">
+        <f>H35/F35</f>
+        <v>0.14306946430557699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1621,8 +1956,16 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36">
+        <f>E36/D36</f>
+        <v>1</v>
+      </c>
+      <c r="L36" t="e">
+        <f>H36/F36</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1633,10 +1976,10 @@
         <v>42</v>
       </c>
       <c r="D37">
-        <v>2.018</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="E37">
-        <v>2.018</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1647,8 +1990,16 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37">
+        <f>E37/D37</f>
+        <v>1</v>
+      </c>
+      <c r="L37" t="e">
+        <f>H37/F37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1665,16 +2016,24 @@
         <v>1.266</v>
       </c>
       <c r="F38">
-        <v>5.064375661482109</v>
+        <v>5.0643756614821092</v>
       </c>
       <c r="G38">
-        <v>4.000296731028522</v>
+        <v>4.0002967310285218</v>
       </c>
       <c r="H38">
-        <v>5.064375661482108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>5.0643756614821083</v>
+      </c>
+      <c r="K38">
+        <f>E38/D38</f>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <f>H38/F38</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1685,22 +2044,30 @@
         <v>44</v>
       </c>
       <c r="D39">
-        <v>2.374</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="E39">
-        <v>2.374</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="F39">
-        <v>-5.064375661482109</v>
+        <v>-5.0643756614821092</v>
       </c>
       <c r="G39">
-        <v>-2.13326691722077</v>
+        <v>-2.1332669172207699</v>
       </c>
       <c r="H39">
-        <v>-5.064375661482109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-5.0643756614821092</v>
+      </c>
+      <c r="K39">
+        <f>E39/D39</f>
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f>H39/F39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1711,22 +2078,30 @@
         <v>45</v>
       </c>
       <c r="D40">
-        <v>1.183</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="E40">
-        <v>1.183</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="F40">
-        <v>1.496983757261562</v>
+        <v>1.4969837572615621</v>
       </c>
       <c r="G40">
         <v>1.26541315068602</v>
       </c>
       <c r="H40">
-        <v>1.496983757261562</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>1.4969837572615621</v>
+      </c>
+      <c r="K40">
+        <f>E40/D40</f>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f>H40/F40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1737,10 +2112,10 @@
         <v>46</v>
       </c>
       <c r="D41">
-        <v>0.799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E41">
-        <v>0.799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1751,8 +2126,16 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="K41">
+        <f>E41/D41</f>
+        <v>1</v>
+      </c>
+      <c r="L41" t="e">
+        <f>H41/F41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1763,22 +2146,30 @@
         <v>47</v>
       </c>
       <c r="D42">
-        <v>1.932</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="E42">
-        <v>1.932</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="F42">
-        <v>1.496983757261562</v>
+        <v>1.4969837572615621</v>
       </c>
       <c r="G42">
-        <v>0.7748363132823821</v>
+        <v>0.77483631328238212</v>
       </c>
       <c r="H42">
-        <v>1.496983757261562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>1.4969837572615621</v>
+      </c>
+      <c r="K42">
+        <f>E42/D42</f>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f>H42/F42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1789,22 +2180,30 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>2.267</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="E43">
-        <v>2.267</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="F43">
-        <v>1.181498093245959</v>
+        <v>1.1814980932459589</v>
       </c>
       <c r="G43">
         <v>0.5211725157679572</v>
       </c>
       <c r="H43">
-        <v>1.181498093245959</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>1.1814980932459589</v>
+      </c>
+      <c r="K43">
+        <f>E43/D43</f>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f>H43/F43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1815,22 +2214,30 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>2.055639129225581</v>
+        <v>2.0556391292255811</v>
       </c>
       <c r="E44">
-        <v>1.112102988641548</v>
+        <v>1.1121029886415481</v>
       </c>
       <c r="F44">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G44">
-        <v>3.637497387480279</v>
+        <v>3.6374973874802792</v>
       </c>
       <c r="H44">
-        <v>4.045271715792641</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>4.0452717157926408</v>
+      </c>
+      <c r="K44">
+        <f>E44/D44</f>
+        <v>0.54100107982499324</v>
+      </c>
+      <c r="L44">
+        <f>H44/F44</f>
+        <v>0.54100107982499313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1841,10 +2248,10 @@
         <v>50</v>
       </c>
       <c r="D45">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="E45">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1855,8 +2262,16 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="K45">
+        <f>E45/D45</f>
+        <v>1</v>
+      </c>
+      <c r="L45" t="e">
+        <f>H45/F45</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1881,8 +2296,16 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="K46">
+        <f>E46/D46</f>
+        <v>1</v>
+      </c>
+      <c r="L46" t="e">
+        <f>H46/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1893,10 +2316,10 @@
         <v>52</v>
       </c>
       <c r="D47">
-        <v>1.533</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="E47">
-        <v>1.533</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1907,8 +2330,16 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="K47">
+        <f>E47/D47</f>
+        <v>1</v>
+      </c>
+      <c r="L47" t="e">
+        <f>H47/F47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1919,22 +2350,30 @@
         <v>53</v>
       </c>
       <c r="D48">
-        <v>1.035</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="E48">
-        <v>1.035</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="F48">
-        <v>22.809833310205</v>
+        <v>22.809833310205001</v>
       </c>
       <c r="G48">
         <v>22.03848629005314</v>
       </c>
       <c r="H48">
-        <v>22.809833310205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22.809833310205001</v>
+      </c>
+      <c r="K48">
+        <f>E48/D48</f>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f>H48/F48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1945,10 +2384,10 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>2.747</v>
+        <v>2.7469999999999999</v>
       </c>
       <c r="E49">
-        <v>2.747</v>
+        <v>2.7469999999999999</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1959,8 +2398,16 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="K49">
+        <f>E49/D49</f>
+        <v>1</v>
+      </c>
+      <c r="L49" t="e">
+        <f>H49/F49</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1971,10 +2418,10 @@
         <v>55</v>
       </c>
       <c r="D50">
-        <v>4.595</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="E50">
-        <v>4.595</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1985,8 +2432,16 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="K50">
+        <f>E50/D50</f>
+        <v>1</v>
+      </c>
+      <c r="L50" t="e">
+        <f>H50/F50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2011,8 +2466,16 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="K51">
+        <f>E51/D51</f>
+        <v>1</v>
+      </c>
+      <c r="L51" t="e">
+        <f>H51/F51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2037,8 +2500,16 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="K52">
+        <f>E52/D52</f>
+        <v>1</v>
+      </c>
+      <c r="L52" t="e">
+        <f>H52/F52</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2058,13 +2529,21 @@
         <v>-10</v>
       </c>
       <c r="G53">
-        <v>-5.414185165132648</v>
+        <v>-5.4141851651326478</v>
       </c>
       <c r="H53">
         <v>-10</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="K53">
+        <f>E53/D53</f>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f>H53/F53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2075,10 +2554,10 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <v>1.449</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="E54">
-        <v>1.449</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2089,8 +2568,16 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="K54">
+        <f>E54/D54</f>
+        <v>1</v>
+      </c>
+      <c r="L54" t="e">
+        <f>H54/F54</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2115,8 +2602,16 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="K55">
+        <f>E55/D55</f>
+        <v>1</v>
+      </c>
+      <c r="L55" t="e">
+        <f>H55/F55</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2127,22 +2622,30 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>1.396</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="E56">
-        <v>1.396</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="F56">
-        <v>17.53086542978666</v>
+        <v>17.530865429786662</v>
       </c>
       <c r="G56">
         <v>12.55792652563515</v>
       </c>
       <c r="H56">
-        <v>17.53086542978666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17.530865429786662</v>
+      </c>
+      <c r="K56">
+        <f>E56/D56</f>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f>H56/F56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2153,22 +2656,30 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>1.584</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="E57">
-        <v>1.584</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="F57">
         <v>29.1758271355658</v>
       </c>
       <c r="G57">
-        <v>18.41908278760467</v>
+        <v>18.419082787604669</v>
       </c>
       <c r="H57">
         <v>29.1758271355658</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="K57">
+        <f>E57/D57</f>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f>H57/F57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2193,8 +2704,16 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="K58">
+        <f>E58/D58</f>
+        <v>1</v>
+      </c>
+      <c r="L58" t="e">
+        <f>H58/F58</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2205,10 +2724,10 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>1.336</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="E59">
-        <v>1.336</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2219,8 +2738,16 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="K59">
+        <f>E59/D59</f>
+        <v>1</v>
+      </c>
+      <c r="L59" t="e">
+        <f>H59/F59</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2231,22 +2758,30 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E60">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F60">
-        <v>-4.765319193197463</v>
+        <v>-4.7653191931974632</v>
       </c>
       <c r="G60">
         <v>-7.528150384198204</v>
       </c>
       <c r="H60">
-        <v>-4.765319193197463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-4.7653191931974632</v>
+      </c>
+      <c r="K60">
+        <f>E60/D60</f>
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <f>H60/F60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2257,22 +2792,30 @@
         <v>66</v>
       </c>
       <c r="D61">
-        <v>4.838</v>
+        <v>4.8380000000000001</v>
       </c>
       <c r="E61">
-        <v>4.838</v>
+        <v>4.8380000000000001</v>
       </c>
       <c r="F61">
-        <v>-21.79949265599882</v>
+        <v>-21.799492655998819</v>
       </c>
       <c r="G61">
-        <v>-4.505889346010504</v>
+        <v>-4.5058893460105036</v>
       </c>
       <c r="H61">
-        <v>-21.79949265599882</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-21.799492655998819</v>
+      </c>
+      <c r="K61">
+        <f>E61/D61</f>
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <f>H61/F61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2283,22 +2826,30 @@
         <v>67</v>
       </c>
       <c r="D62">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E62">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="F62">
-        <v>-3.214895047684765</v>
+        <v>-3.2148950476847649</v>
       </c>
       <c r="G62">
         <v>-3.307505193091322</v>
       </c>
       <c r="H62">
-        <v>-3.214895047684765</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-3.2148950476847649</v>
+      </c>
+      <c r="K62">
+        <f>E62/D62</f>
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <f>H62/F62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2323,8 +2874,16 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="K63">
+        <f>E63/D63</f>
+        <v>1</v>
+      </c>
+      <c r="L63" t="e">
+        <f>H63/F63</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2335,10 +2894,10 @@
         <v>69</v>
       </c>
       <c r="D64">
-        <v>1.184</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="E64">
-        <v>1.184</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2349,8 +2908,16 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="K64">
+        <f>E64/D64</f>
+        <v>1</v>
+      </c>
+      <c r="L64" t="e">
+        <f>H64/F64</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2361,22 +2928,30 @@
         <v>70</v>
       </c>
       <c r="D65">
-        <v>0.8182906262593367</v>
+        <v>0.81829062625933668</v>
       </c>
       <c r="E65">
-        <v>0.09485779135905853</v>
+        <v>9.485779135905853E-2</v>
       </c>
       <c r="F65">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G65">
         <v>9.137807182689782</v>
       </c>
       <c r="H65">
-        <v>0.8667922072148938</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.86679220721489381</v>
+      </c>
+      <c r="K65">
+        <f>E65/D65</f>
+        <v>0.11592188437093955</v>
+      </c>
+      <c r="L65">
+        <f>H65/F65</f>
+        <v>0.11592188437093955</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2387,10 +2962,10 @@
         <v>71</v>
       </c>
       <c r="D66">
-        <v>1.184</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="E66">
-        <v>1.184</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2401,8 +2976,16 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="K66">
+        <f>E66/D66</f>
+        <v>1</v>
+      </c>
+      <c r="L66" t="e">
+        <f>H66/F66</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2427,8 +3010,16 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="K67">
+        <f>E67/D67</f>
+        <v>1</v>
+      </c>
+      <c r="L67" t="e">
+        <f>H67/F67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2453,8 +3044,16 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="K68">
+        <f>E68/D68</f>
+        <v>1</v>
+      </c>
+      <c r="L68" t="e">
+        <f>H68/F68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2465,10 +3064,10 @@
         <v>74</v>
       </c>
       <c r="D69">
-        <v>1.545</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="E69">
-        <v>1.545</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2479,8 +3078,16 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="K69">
+        <f>E69/D69</f>
+        <v>1</v>
+      </c>
+      <c r="L69" t="e">
+        <f>H69/F69</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2494,7 +3101,7 @@
         <v>1.375241784603132</v>
       </c>
       <c r="E70">
-        <v>0.3982975094480791</v>
+        <v>0.39829750944807912</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2505,8 +3112,16 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="K70">
+        <f>E70/D70</f>
+        <v>0.28961998821394164</v>
+      </c>
+      <c r="L70" t="e">
+        <f>H70/F70</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2517,22 +3132,30 @@
         <v>76</v>
       </c>
       <c r="D71">
-        <v>1.648</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="E71">
-        <v>1.648</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="F71">
-        <v>5.064375661482113</v>
+        <v>5.0643756614821127</v>
       </c>
       <c r="G71">
         <v>3.073043483909049</v>
       </c>
       <c r="H71">
-        <v>5.064375661482113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>5.0643756614821127</v>
+      </c>
+      <c r="K71">
+        <f>E71/D71</f>
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f>H71/F71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2543,10 +3166,10 @@
         <v>77</v>
       </c>
       <c r="D72">
-        <v>3.237</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="E72">
-        <v>3.237</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2557,8 +3180,16 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="K72">
+        <f>E72/D72</f>
+        <v>1</v>
+      </c>
+      <c r="L72" t="e">
+        <f>H72/F72</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2569,22 +3200,30 @@
         <v>78</v>
       </c>
       <c r="D73">
-        <v>9.093944132749122</v>
+        <v>9.0939441327491224</v>
       </c>
       <c r="E73">
         <v>15.83710734441299</v>
       </c>
       <c r="F73">
-        <v>4.959984944574645</v>
+        <v>4.9599849445746447</v>
       </c>
       <c r="G73">
-        <v>0.5454162541765284</v>
+        <v>0.54541625417652839</v>
       </c>
       <c r="H73">
-        <v>8.637815764781323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>8.6378157647813225</v>
+      </c>
+      <c r="K73">
+        <f>E73/D73</f>
+        <v>1.7415003999618142</v>
+      </c>
+      <c r="L73">
+        <f>H73/F73</f>
+        <v>1.7415003999618146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2595,22 +3234,30 @@
         <v>79</v>
       </c>
       <c r="D74">
-        <v>2.415841103625073</v>
+        <v>2.4158411036250729</v>
       </c>
       <c r="E74">
         <v>1.62768956078576</v>
       </c>
       <c r="F74">
-        <v>16.02352614316763</v>
+        <v>16.023526143167629</v>
       </c>
       <c r="G74">
         <v>6.632690419549383</v>
       </c>
       <c r="H74">
-        <v>10.79596095582425</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>10.795960955824251</v>
+      </c>
+      <c r="K74">
+        <f>E74/D74</f>
+        <v>0.67375687844011856</v>
+      </c>
+      <c r="L74">
+        <f>H74/F74</f>
+        <v>0.67375687844011833</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2624,19 +3271,27 @@
         <v>1.588387416368096</v>
       </c>
       <c r="E75">
-        <v>0.5819326851059476</v>
+        <v>0.58193268510594764</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75">
-        <v>6.295693290535729</v>
+        <v>6.2956932905357288</v>
       </c>
       <c r="H75">
-        <v>3.663669701164955</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>3.6636697011649551</v>
+      </c>
+      <c r="K75">
+        <f>E75/D75</f>
+        <v>0.36636697011649544</v>
+      </c>
+      <c r="L75">
+        <f>H75/F75</f>
+        <v>0.36636697011649549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2653,16 +3308,24 @@
         <v>0.67</v>
       </c>
       <c r="F76">
-        <v>0.2234617293318275</v>
+        <v>0.22346172933182751</v>
       </c>
       <c r="G76">
-        <v>0.3335249691519813</v>
+        <v>0.33352496915198132</v>
       </c>
       <c r="H76">
-        <v>0.2234617293318275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.22346172933182751</v>
+      </c>
+      <c r="K76">
+        <f>E76/D76</f>
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <f>H76/F76</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2673,10 +3336,10 @@
         <v>82</v>
       </c>
       <c r="D77">
-        <v>1.473</v>
+        <v>1.4730000000000001</v>
       </c>
       <c r="E77">
-        <v>1.473</v>
+        <v>1.4730000000000001</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2687,8 +3350,16 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="K77">
+        <f>E77/D77</f>
+        <v>1</v>
+      </c>
+      <c r="L77" t="e">
+        <f>H77/F77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2699,10 +3370,10 @@
         <v>83</v>
       </c>
       <c r="D78">
-        <v>2.333</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="E78">
-        <v>2.333</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="F78">
         <v>-4.541857463865635</v>
@@ -2713,8 +3384,16 @@
       <c r="H78">
         <v>-4.541857463865635</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="K78">
+        <f>E78/D78</f>
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <f>H78/F78</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2725,10 +3404,10 @@
         <v>84</v>
       </c>
       <c r="D79">
-        <v>4.022</v>
+        <v>4.0220000000000002</v>
       </c>
       <c r="E79">
-        <v>4.022</v>
+        <v>4.0220000000000002</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2739,8 +3418,16 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="K79">
+        <f>E79/D79</f>
+        <v>1</v>
+      </c>
+      <c r="L79" t="e">
+        <f>H79/F79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2765,8 +3452,16 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="K80">
+        <f>E80/D80</f>
+        <v>1</v>
+      </c>
+      <c r="L80" t="e">
+        <f>H80/F80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2791,8 +3486,16 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="K81">
+        <f>E81/D81</f>
+        <v>1</v>
+      </c>
+      <c r="L81" t="e">
+        <f>H81/F81</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2803,22 +3506,30 @@
         <v>87</v>
       </c>
       <c r="D82">
-        <v>2.961</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="E82">
-        <v>2.961</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="F82">
-        <v>4.959984944574645</v>
+        <v>4.9599849445746447</v>
       </c>
       <c r="G82">
-        <v>1.675104675641555</v>
+        <v>1.6751046756415551</v>
       </c>
       <c r="H82">
-        <v>4.959984944574645</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>4.9599849445746447</v>
+      </c>
+      <c r="K82">
+        <f>E82/D82</f>
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <f>H82/F82</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2838,13 +3549,21 @@
         <v>-29.1758271355658</v>
       </c>
       <c r="G83">
-        <v>-14.8100645358202</v>
+        <v>-14.810064535820199</v>
       </c>
       <c r="H83">
         <v>-29.1758271355658</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="K83">
+        <f>E83/D83</f>
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f>H83/F83</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2855,22 +3574,30 @@
         <v>89</v>
       </c>
       <c r="D84">
-        <v>2.197</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="E84">
-        <v>3.089691166333025</v>
+        <v>3.0896911663330249</v>
       </c>
       <c r="F84">
-        <v>6.007249575350357</v>
+        <v>6.0072495753503574</v>
       </c>
       <c r="G84">
-        <v>2.7342965750343</v>
+        <v>2.7342965750342998</v>
       </c>
       <c r="H84">
-        <v>8.448131974018123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>8.4481319740181231</v>
+      </c>
+      <c r="K84">
+        <f>E84/D84</f>
+        <v>1.4063227884993286</v>
+      </c>
+      <c r="L84">
+        <f>H84/F84</f>
+        <v>1.4063227884993288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2881,10 +3608,10 @@
         <v>90</v>
       </c>
       <c r="D85">
-        <v>1.699</v>
+        <v>1.6990000000000001</v>
       </c>
       <c r="E85">
-        <v>2.706005659202657</v>
+        <v>2.7060056592026571</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2895,8 +3622,16 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="K85">
+        <f>E85/D85</f>
+        <v>1.5927049200721937</v>
+      </c>
+      <c r="L85" t="e">
+        <f>H85/F85</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2907,10 +3642,10 @@
         <v>91</v>
       </c>
       <c r="D86">
-        <v>0.846</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="E86">
-        <v>0.846</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2921,8 +3656,16 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="K86">
+        <f>E86/D86</f>
+        <v>1</v>
+      </c>
+      <c r="L86" t="e">
+        <f>H86/F86</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2936,7 +3679,7 @@
         <v>1.248</v>
       </c>
       <c r="E87">
-        <v>2.189233903518555</v>
+        <v>2.1892339035185548</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2947,8 +3690,16 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="K87">
+        <f>E87/D87</f>
+        <v>1.7541938329475599</v>
+      </c>
+      <c r="L87" t="e">
+        <f>H87/F87</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2959,10 +3710,10 @@
         <v>93</v>
       </c>
       <c r="D88">
-        <v>1.959</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="E88">
-        <v>1.959</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2973,8 +3724,16 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="K88">
+        <f>E88/D88</f>
+        <v>1</v>
+      </c>
+      <c r="L88" t="e">
+        <f>H88/F88</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2991,16 +3750,24 @@
         <v>0.84</v>
       </c>
       <c r="F89">
-        <v>5.064375661482113</v>
+        <v>5.0643756614821127</v>
       </c>
       <c r="G89">
         <v>6.029018644621563</v>
       </c>
       <c r="H89">
-        <v>5.064375661482113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>5.0643756614821127</v>
+      </c>
+      <c r="K89">
+        <f>E89/D89</f>
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f>H89/F89</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3011,10 +3778,10 @@
         <v>95</v>
       </c>
       <c r="D90">
-        <v>1.709</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="E90">
-        <v>1.709</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3025,8 +3792,16 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="K90">
+        <f>E90/D90</f>
+        <v>1</v>
+      </c>
+      <c r="L90" t="e">
+        <f>H90/F90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3051,8 +3826,16 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="K91">
+        <f>E91/D91</f>
+        <v>1</v>
+      </c>
+      <c r="L91" t="e">
+        <f>H91/F91</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3063,22 +3846,30 @@
         <v>97</v>
       </c>
       <c r="D92">
-        <v>2.099</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="E92">
-        <v>2.099</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="F92">
-        <v>38.53460965051551</v>
+        <v>38.534609650515513</v>
       </c>
       <c r="G92">
         <v>18.3585562889545</v>
       </c>
       <c r="H92">
-        <v>38.53460965051551</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>38.534609650515513</v>
+      </c>
+      <c r="K92">
+        <f>E92/D92</f>
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <f>H92/F92</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3103,8 +3894,16 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="K93">
+        <f>E93/D93</f>
+        <v>1</v>
+      </c>
+      <c r="L93" t="e">
+        <f>H93/F93</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3115,22 +3914,30 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>1.932</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="E94">
-        <v>1.932</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="F94">
-        <v>4.765319193197463</v>
+        <v>4.7653191931974632</v>
       </c>
       <c r="G94">
-        <v>2.466521321530778</v>
+        <v>2.4665213215307782</v>
       </c>
       <c r="H94">
-        <v>4.765319193197463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>4.7653191931974632</v>
+      </c>
+      <c r="K94">
+        <f>E94/D94</f>
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <f>H94/F94</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3141,22 +3948,30 @@
         <v>100</v>
       </c>
       <c r="D95">
-        <v>2.741</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="E95">
-        <v>2.741</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="F95">
-        <v>21.79949265599882</v>
+        <v>21.799492655998819</v>
       </c>
       <c r="G95">
-        <v>7.953116620211169</v>
+        <v>7.9531166202111692</v>
       </c>
       <c r="H95">
-        <v>21.79949265599882</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21.799492655998819</v>
+      </c>
+      <c r="K95">
+        <f>E95/D95</f>
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <f>H95/F95</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3167,13 +3982,13 @@
         <v>101</v>
       </c>
       <c r="D96">
-        <v>0.9991649606288733</v>
+        <v>0.99916496062887328</v>
       </c>
       <c r="E96">
-        <v>0.1663806189040289</v>
+        <v>0.16638061890402889</v>
       </c>
       <c r="F96">
-        <v>9.282532599166634</v>
+        <v>9.2825325991666343</v>
       </c>
       <c r="G96">
         <v>9.290290357384249</v>
@@ -3181,8 +3996,16 @@
       <c r="H96">
         <v>1.545724259459724</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="K96">
+        <f>E96/D96</f>
+        <v>0.16651966938403157</v>
+      </c>
+      <c r="L96">
+        <f>H96/F96</f>
+        <v>0.16651966938403165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3205,10 +4028,18 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H97">
-        <v>20.11176470588235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K97">
+        <f>E97/D97</f>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L97">
+        <f>H97/F97</f>
+        <v>2.0111764705882349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3231,7 +4062,15 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H98">
-        <v>20.11176470588235</v>
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K98">
+        <f>E98/D98</f>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L98">
+        <f>H98/F98</f>
+        <v>2.0111764705882349</v>
       </c>
     </row>
   </sheetData>
